--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="84" uniqueCount="6">
   <si>
     <t>Warm tank fill time (s)</t>
   </si>
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>302.5</v>
+        <v>299.06489935018368</v>
       </c>
       <c r="B2" s="0">
-        <v>258.5</v>
+        <v>255.58105286261491</v>
       </c>
       <c r="C2" s="0">
-        <v>16.487995235491564</v>
+        <v>16.291181932318644</v>
       </c>
       <c r="D2" s="0">
-        <v>33.098059296561793</v>
+        <v>32.801547696621327</v>
       </c>
       <c r="E2" s="0">
-        <v>15.074167517645998</v>
+        <v>14.630677554772928</v>
       </c>
       <c r="F2" s="0">
-        <v>29.944006501304898</v>
+        <v>29.034089744183696</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="84" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="6">
   <si>
     <t>Warm tank fill time (s)</t>
   </si>
@@ -82,12 +82,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="true"/>
-    <col min="2" max="2" width="19.5703125" customWidth="true"/>
-    <col min="3" max="3" width="20" customWidth="true"/>
-    <col min="4" max="4" width="23" customWidth="true"/>
-    <col min="5" max="5" width="18.7109375" customWidth="true"/>
-    <col min="6" max="6" width="21.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19.06640625" customWidth="true"/>
+    <col min="2" max="2" width="17.6640625" customWidth="true"/>
+    <col min="3" max="3" width="18.86328125" customWidth="true"/>
+    <col min="4" max="4" width="21.1328125" customWidth="true"/>
+    <col min="5" max="5" width="17.46484375" customWidth="true"/>
+    <col min="6" max="6" width="19.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>299.06489935018368</v>
+        <v>195.0096377740345</v>
       </c>
       <c r="B2" s="0">
-        <v>255.58105286261491</v>
+        <v>139.54620347207248</v>
       </c>
       <c r="C2" s="0">
-        <v>16.291181932318644</v>
+        <v>15.91301378745494</v>
       </c>
       <c r="D2" s="0">
-        <v>32.801547696621327</v>
+        <v>32.621820656329497</v>
       </c>
       <c r="E2" s="0">
-        <v>14.630677554772928</v>
+        <v>14.822072508385762</v>
       </c>
       <c r="F2" s="0">
-        <v>29.034089744183696</v>
+        <v>28.662890079119173</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="132" uniqueCount="6">
   <si>
     <t>Warm tank fill time (s)</t>
   </si>
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>195.0096377740345</v>
+        <v>329</v>
       </c>
       <c r="B2" s="0">
-        <v>139.54620347207248</v>
+        <v>226</v>
       </c>
       <c r="C2" s="0">
-        <v>15.91301378745494</v>
+        <v>17.766173949871199</v>
       </c>
       <c r="D2" s="0">
-        <v>32.621820656329497</v>
+        <v>34.963841842833091</v>
       </c>
       <c r="E2" s="0">
-        <v>14.822072508385762</v>
+        <v>15.649279887560725</v>
       </c>
       <c r="F2" s="0">
-        <v>28.662890079119173</v>
+        <v>31.207861955707969</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="132" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="6">
   <si>
     <t>Warm tank fill time (s)</t>
   </si>
@@ -82,12 +82,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" customWidth="true"/>
-    <col min="2" max="2" width="17.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.86328125" customWidth="true"/>
-    <col min="4" max="4" width="21.1328125" customWidth="true"/>
-    <col min="5" max="5" width="17.46484375" customWidth="true"/>
-    <col min="6" max="6" width="19.73046875" customWidth="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="true"/>
+    <col min="2" max="2" width="19.5703125" customWidth="true"/>
+    <col min="3" max="3" width="20" customWidth="true"/>
+    <col min="4" max="4" width="23" customWidth="true"/>
+    <col min="5" max="5" width="18.7109375" customWidth="true"/>
+    <col min="6" max="6" width="21.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="B2" s="0">
-        <v>226</v>
+        <v>236.5</v>
       </c>
       <c r="C2" s="0">
-        <v>17.766173949871199</v>
+        <v>16.315770574572472</v>
       </c>
       <c r="D2" s="0">
-        <v>34.963841842833091</v>
+        <v>33.395457983595726</v>
       </c>
       <c r="E2" s="0">
-        <v>15.649279887560725</v>
+        <v>15.727193057959482</v>
       </c>
       <c r="F2" s="0">
-        <v>31.207861955707969</v>
+        <v>30.588891713187067</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="B2" s="0">
-        <v>236.5</v>
+        <v>291.5</v>
       </c>
       <c r="C2" s="0">
-        <v>16.315770574572472</v>
+        <v>16.081743089950155</v>
       </c>
       <c r="D2" s="0">
-        <v>33.395457983595726</v>
+        <v>34.897565432435158</v>
       </c>
       <c r="E2" s="0">
-        <v>15.727193057959482</v>
+        <v>15.733901658773538</v>
       </c>
       <c r="F2" s="0">
-        <v>30.588891713187067</v>
+        <v>30.940781288051532</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -82,12 +82,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="true"/>
-    <col min="2" max="2" width="19.5703125" customWidth="true"/>
-    <col min="3" max="3" width="20" customWidth="true"/>
-    <col min="4" max="4" width="23" customWidth="true"/>
-    <col min="5" max="5" width="18.7109375" customWidth="true"/>
-    <col min="6" max="6" width="21.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19.06640625" customWidth="true"/>
+    <col min="2" max="2" width="17.6640625" customWidth="true"/>
+    <col min="3" max="3" width="18.86328125" customWidth="true"/>
+    <col min="4" max="4" width="21.1328125" customWidth="true"/>
+    <col min="5" max="5" width="17.46484375" customWidth="true"/>
+    <col min="6" max="6" width="19.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>338.5</v>
+        <v>337.60000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>291.5</v>
+        <v>290</v>
       </c>
       <c r="C2" s="0">
-        <v>16.081743089950155</v>
+        <v>16.095753678750174</v>
       </c>
       <c r="D2" s="0">
-        <v>34.897565432435158</v>
+        <v>34.879336484153207</v>
       </c>
       <c r="E2" s="0">
-        <v>15.733901658773538</v>
+        <v>15.703965597336769</v>
       </c>
       <c r="F2" s="0">
-        <v>30.940781288051532</v>
+        <v>30.860472118130232</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -82,12 +82,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" customWidth="true"/>
-    <col min="2" max="2" width="17.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.86328125" customWidth="true"/>
-    <col min="4" max="4" width="21.1328125" customWidth="true"/>
-    <col min="5" max="5" width="17.46484375" customWidth="true"/>
-    <col min="6" max="6" width="19.73046875" customWidth="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="true"/>
+    <col min="2" max="2" width="19.5703125" customWidth="true"/>
+    <col min="3" max="3" width="20" customWidth="true"/>
+    <col min="4" max="4" width="23" customWidth="true"/>
+    <col min="5" max="5" width="18.7109375" customWidth="true"/>
+    <col min="6" max="6" width="21.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>337.60000000000002</v>
+        <v>338.10000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>290</v>
+        <v>291.5</v>
       </c>
       <c r="C2" s="0">
-        <v>16.095753678750174</v>
+        <v>16.079038534986278</v>
       </c>
       <c r="D2" s="0">
-        <v>34.879336484153207</v>
+        <v>34.897564387744758</v>
       </c>
       <c r="E2" s="0">
-        <v>15.703965597336769</v>
+        <v>15.727975676422792</v>
       </c>
       <c r="F2" s="0">
-        <v>30.860472118130232</v>
+        <v>30.940765533200562</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -82,12 +82,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="true"/>
-    <col min="2" max="2" width="19.5703125" customWidth="true"/>
-    <col min="3" max="3" width="20" customWidth="true"/>
-    <col min="4" max="4" width="23" customWidth="true"/>
-    <col min="5" max="5" width="18.7109375" customWidth="true"/>
-    <col min="6" max="6" width="21.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19.06640625" customWidth="true"/>
+    <col min="2" max="2" width="17.6640625" customWidth="true"/>
+    <col min="3" max="3" width="18.86328125" customWidth="true"/>
+    <col min="4" max="4" width="21.1328125" customWidth="true"/>
+    <col min="5" max="5" width="17.46484375" customWidth="true"/>
+    <col min="6" max="6" width="19.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>338.10000000000002</v>
+        <v>337.60000000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>291.5</v>
+        <v>290</v>
       </c>
       <c r="C2" s="0">
-        <v>16.079038534986278</v>
+        <v>16.095753678750174</v>
       </c>
       <c r="D2" s="0">
-        <v>34.897564387744758</v>
+        <v>34.879336484153207</v>
       </c>
       <c r="E2" s="0">
-        <v>15.727975676422792</v>
+        <v>15.703965597336769</v>
       </c>
       <c r="F2" s="0">
-        <v>30.940765533200562</v>
+        <v>30.860472118130232</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
+++ b/Graphs/normal_tank_filling_time_total_consumption_results.xlsx
@@ -112,22 +112,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>337.60000000000002</v>
+        <v>338.5</v>
       </c>
       <c r="B2" s="0">
-        <v>290</v>
+        <v>291.5</v>
       </c>
       <c r="C2" s="0">
-        <v>16.095753678750174</v>
+        <v>16.081743089950155</v>
       </c>
       <c r="D2" s="0">
-        <v>34.879336484153207</v>
+        <v>34.897565432435158</v>
       </c>
       <c r="E2" s="0">
-        <v>15.703965597336769</v>
+        <v>15.733901658773538</v>
       </c>
       <c r="F2" s="0">
-        <v>30.860472118130232</v>
+        <v>30.940781288051532</v>
       </c>
     </row>
   </sheetData>
